--- a/src/test/resources/showcase/artifact/data/mail-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/mail-showcase.data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88613BB-2BA1-944D-B3D9-F753A8A5957B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022FF17-11BD-7C4C-ADC1-4123242A94EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="6840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="6840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
+    <sheet name="gmail" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>true</t>
   </si>
@@ -105,13 +106,49 @@
   </si>
   <si>
     <t>nobody@here.com</t>
+  </si>
+  <si>
+    <t>Gmail.host</t>
+  </si>
+  <si>
+    <t>Gmail.port</t>
+  </si>
+  <si>
+    <t>Gmail.from</t>
+  </si>
+  <si>
+    <t>Gmail.auth</t>
+  </si>
+  <si>
+    <t>Gmail.username</t>
+  </si>
+  <si>
+    <t>Gmail.password</t>
+  </si>
+  <si>
+    <t>smtp.gmail.com</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>nexial-noreply@gmail.com</t>
+  </si>
+  <si>
+    <t>Gmail.tls</t>
+  </si>
+  <si>
+    <t>&lt;your email address here&gt;</t>
+  </si>
+  <si>
+    <t>&lt;your email password here&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,13 +194,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -199,7 +248,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -223,6 +272,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -233,7 +286,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -590,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -692,6 +810,122 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1226C67-323D-D744-9B03-5097B61B3274}">
+  <dimension ref="A1:AAA8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA2" s="4"/>
+      <c r="AAA2" s="5"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
@@ -713,5 +947,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/data/mail-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/mail-showcase.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9022FF17-11BD-7C4C-ADC1-4123242A94EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41248BFA-15A1-3C41-BD95-2BC9EDF13BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="6840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -141,7 +141,7 @@
     <t>&lt;your email address here&gt;</t>
   </si>
   <si>
-    <t>&lt;your email password here&gt;</t>
+    <t>crypt:YOU_SHOULD_ENCRYPT_YOUR_PASSWORD_HERE!!!</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
   <dimension ref="A1:AAA8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
